--- a/doc/pball.xlsx
+++ b/doc/pball.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="levelData" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1:横排
-2:竖排
-3:周围
-4:同种类
-5:变为万能球</t>
+1:删除一个球
+2:两个球交换位置
+3:下一回合不出现球
+4:提示下次出现位置
+5:使所有特殊球失效</t>
         </r>
       </text>
     </comment>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,180 +339,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RemoveCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连成几个可以消除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现形状条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现个数条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShapeCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1</t>
+  </si>
+  <si>
+    <t>1;1;0;0;0;0;0;1;1;1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;1;1</t>
+  </si>
+  <si>
+    <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1</t>
+  </si>
+  <si>
+    <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;1;1;1;1;1;0;0;0;1;1;1</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>特殊球初始化出现几率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RemoveCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连成几个可以消除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;0;1;1;1;0;0;0;0;1;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现形状条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现个数条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShapeCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7001</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7002</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7003</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7004</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7005</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7006</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7007</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7008</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7009</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7010</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7011</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7012</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7013</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7014</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7015</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7016</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7017</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7018</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7019</t>
-  </si>
-  <si>
-    <t>2000;3000;4000;5000;6000;7020</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,6</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,7</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,8</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,9</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,10</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,11</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,12</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,13</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,14</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,15</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,16</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,17</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,18</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,19</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,20</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,21</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,22</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,23</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,24</t>
-  </si>
-  <si>
-    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,25</t>
+    <t>uchar[32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropsRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮罩道具出现几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnPut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置时发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchar[1024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchar[1024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchMap.onPutProps(self, target);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示时发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local oldSel = touchMap.getSelectPos;if(oldSel &gt; 0)then touchMap.onChangeBall(oldSelect, target);end;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameScene.onSetNextCount(0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameScene.onShowNextPosition();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchMap.onDisableSpecialBall();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAroundRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围的球消时发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchMap.onEnableMaskBall(self);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchMap.onDisableMaskBall(self);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,8 +576,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -662,12 +641,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="49">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -687,6 +668,11 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -706,6 +692,11 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1053,10 +1044,11 @@
     <col min="10" max="10" width="31.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="21.5" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1093,8 +1085,11 @@
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
@@ -1131,8 +1126,11 @@
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1149,13 +1147,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -1169,8 +1167,11 @@
       <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1187,14 +1188,12 @@
         <v>300</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="1">
         <v>100</v>
       </c>
@@ -1205,8 +1204,11 @@
       <c r="L4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1223,14 +1225,12 @@
         <v>300</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>100101</v>
       </c>
@@ -1241,8 +1241,9 @@
       <c r="L5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1259,14 +1260,12 @@
         <v>300</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>100101</v>
       </c>
@@ -1277,8 +1276,9 @@
       <c r="L6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1295,14 +1295,12 @@
         <v>300</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>100101</v>
       </c>
@@ -1313,8 +1311,9 @@
       <c r="L7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1331,14 +1330,12 @@
         <v>300</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>100101</v>
       </c>
@@ -1349,8 +1346,9 @@
       <c r="L8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1367,14 +1365,12 @@
         <v>300</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>100101</v>
       </c>
@@ -1385,8 +1381,9 @@
       <c r="L9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1403,14 +1400,12 @@
         <v>300</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>100101</v>
       </c>
@@ -1421,8 +1416,9 @@
       <c r="L10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1439,14 +1435,12 @@
         <v>300</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>100101</v>
       </c>
@@ -1457,8 +1451,9 @@
       <c r="L11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1475,14 +1470,12 @@
         <v>300</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>100101</v>
       </c>
@@ -1493,8 +1486,9 @@
       <c r="L12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1514,11 +1508,9 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>100101</v>
       </c>
@@ -1531,424 +1523,7 @@
       <c r="L13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>300</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K14" s="1">
-        <v>50</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1">
-        <v>200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>300</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>112</v>
-      </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <v>200</v>
-      </c>
-      <c r="E16" s="1">
-        <v>300</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>113</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>200</v>
-      </c>
-      <c r="E17" s="1">
-        <v>300</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K17" s="1">
-        <v>100</v>
-      </c>
-      <c r="L17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>114</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1">
-        <v>200</v>
-      </c>
-      <c r="E18" s="1">
-        <v>300</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K18" s="1">
-        <v>100</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>300</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
-      </c>
-      <c r="L19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>300</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-      <c r="L20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>117</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1">
-        <v>200</v>
-      </c>
-      <c r="E21" s="1">
-        <v>300</v>
-      </c>
-      <c r="F21" s="1">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-      <c r="L21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>118</v>
-      </c>
-      <c r="C22" s="1">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1">
-        <v>200</v>
-      </c>
-      <c r="E22" s="1">
-        <v>300</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100</v>
-      </c>
-      <c r="L22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>119</v>
-      </c>
-      <c r="C23" s="1">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1">
-        <v>200</v>
-      </c>
-      <c r="E23" s="1">
-        <v>300</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K23" s="1">
-        <v>100</v>
-      </c>
-      <c r="L23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100</v>
-      </c>
-      <c r="D24" s="1">
-        <v>200</v>
-      </c>
-      <c r="E24" s="1">
-        <v>300</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="2">
-        <v>100101</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K24" s="1">
-        <v>100</v>
-      </c>
-      <c r="L24" s="1">
-        <v>10</v>
-      </c>
+      <c r="M13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,7 +1542,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2706,76 +2281,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="88.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2792,15 +2441,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="195" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="162.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2832,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2840,7 +2490,71 @@
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +2573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2872,35 +2586,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/doc/pball.xlsx
+++ b/doc/pball.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="levelData" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,8 @@
 2:两个球交换位置
 3:下一回合不出现球
 4:提示下次出现位置
-5:使所有特殊球失效</t>
+5:任意寻路
+100:遮罩格子</t>
         </r>
       </text>
     </comment>
@@ -177,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,18 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uchar[32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropsRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遮罩道具出现几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnPut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,31 +425,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>touchMap.onPutProps(self, target);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnShow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周围的球消时发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮罩道具出现位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2001;11,2002;15,2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropsPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callFunction(self, 'maskMap', 2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callFunction(self,'disMaskMap');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callFunction(self, 'maskMap', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>显示时发生事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>local oldSel = touchMap.getSelectPos;if(oldSel &gt; 0)then touchMap.onChangeBall(oldSelect, target);end;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameScene.onSetNextCount(0);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameScene.onShowNextPosition();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touchMap.onDisableSpecialBall();</t>
+    <t>callFunction(self, 'maskMap', 4);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,19 +469,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周围的球消时发生事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touchMap.onEnableMaskBall(self);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touchMap.onDisableMaskBall(self);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001,50</t>
+    <t>callFunction(touchMap,'destroyBall');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callFunction(gameScene,'disableBallMap', 1);callFunction(touchMap, 'clearSelectProps');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callFunction(gameScene,'showNextPosition', 1);callFunction(touchMap, 'clearSelectProps');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnPick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchar[1024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中时发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">local selectPos = callFunction(self, 'getSelectPos');
+local ball = callFunction(touchMap, 'getBall', selectPos);
+if (ball) then
+    local oldid = callFunction(touchMap,'getOldSelect');
+    local curid = callFunction(touchMap,'getSelect');
+    if (oldid &gt; 0 and curid &gt; 0) then
+        callFunction(touchMap,'changePosition', oldid, curid);
+        callFunction(touchMap, 'clearSelectProps');
+    end;
+else
+    callFunction(touchMap, 'clearSelectProps');
+end;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">local selectPos = callFunction(self, 'getSelectPos');
+local ball = callFunction(touchMap, 'getBall', selectPos);
+local curid = callFunction(touchMap,'getSelect');
+local oldid = callFunction(touchMap,'getOldSelect');
+if (oldid &gt; 0) then
+    if (ball) then
+        callFunction(touchMap, 'clearSelectProps');
+    else
+        callFunction(touchMap, 'moveto', selectPos, 1);
+    end;
+else
+    if (ball) then
+    else
+        callFunction(touchMap, 'clearSelectProps');
+    end;
+end;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +588,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -576,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,8 +678,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,8 +717,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="67">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -673,6 +749,15 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -697,6 +782,15 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1028,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1086,7 +1180,7 @@
         <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1127,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1168,7 +1262,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1205,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2281,22 +2375,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="88.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="106.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="133" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2304,33 +2399,39 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2338,42 +2439,47 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="221">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -2381,12 +2487,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -2394,42 +2501,78 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="289">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
